--- a/lista6/dane_string.xlsx
+++ b/lista6/dane_string.xlsx
@@ -10,10 +10,6 @@
   <sheets>
     <sheet name="dane_string" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -107,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -115,8 +111,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -140,24 +143,36 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Kategoria tabeli przestawnej" xfId="20"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -297,7 +312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]dane_double!$A$2</c:f>
+              <c:f>dane_string!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -367,27 +382,27 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]dane_int!$C$2:$C$15</c:f>
+              <c:f>dane_string!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>640</c:v>
@@ -423,46 +438,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.06442</c:v>
+                  <c:v>0.12014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06504</c:v>
+                  <c:v>0.18694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20944</c:v>
+                  <c:v>0.24262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.06776</c:v>
+                  <c:v>0.26544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13672</c:v>
+                  <c:v>0.53958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2332</c:v>
+                  <c:v>0.70404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36384</c:v>
+                  <c:v>0.93234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98802</c:v>
+                  <c:v>2.52398</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.86504</c:v>
+                  <c:v>12.22118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.02444</c:v>
+                  <c:v>18.05118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.39196</c:v>
+                  <c:v>69.53132</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>160.19042</c:v>
+                  <c:v>245.10638</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>568.97624</c:v>
+                  <c:v>1206.54412</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2217.81796</c:v>
+                  <c:v>9907.03734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,7 +489,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]dane_double!$A$17</c:f>
+              <c:f>dane_string!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -549,22 +564,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>640</c:v>
@@ -600,46 +615,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.33536</c:v>
+                  <c:v>0.12036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1431</c:v>
+                  <c:v>0.2426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18986</c:v>
+                  <c:v>0.25898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14936</c:v>
+                  <c:v>0.3466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20782</c:v>
+                  <c:v>0.54658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50966</c:v>
+                  <c:v>0.79646</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.57518</c:v>
+                  <c:v>0.97132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.14326</c:v>
+                  <c:v>2.0248</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.23402</c:v>
+                  <c:v>5.55378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.67716</c:v>
+                  <c:v>19.14122</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.98154</c:v>
+                  <c:v>72.3133</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>169.37066</c:v>
+                  <c:v>266.78906</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>642.49028</c:v>
+                  <c:v>1346.5357</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2249.7953</c:v>
+                  <c:v>12337.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,7 +666,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]dane_double!$A$30</c:f>
+              <c:f>dane_string!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -721,7 +736,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]dane_double!$C$30:$C$43</c:f>
+              <c:f>dane_string!$C$30:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -732,10 +747,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>160</c:v>
@@ -777,46 +792,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.04814</c:v>
+                  <c:v>0.10662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0453</c:v>
+                  <c:v>0.1622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16938</c:v>
+                  <c:v>0.21402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0763</c:v>
+                  <c:v>0.2196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0878</c:v>
+                  <c:v>0.24366</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51184</c:v>
+                  <c:v>0.33488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35162</c:v>
+                  <c:v>0.72156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8911</c:v>
+                  <c:v>1.5119</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.97722</c:v>
+                  <c:v>4.20414</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.49454</c:v>
+                  <c:v>17.6857</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.33716</c:v>
+                  <c:v>61.13942</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>157.43872</c:v>
+                  <c:v>256.09964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>574.80762</c:v>
+                  <c:v>1130.22278</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2208.22924</c:v>
+                  <c:v>10595.93898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,7 +843,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]dane_double!$A$46</c:f>
+              <c:f>dane_string!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -903,25 +918,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1280</c:v>
@@ -954,57 +969,57 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.74878</c:v>
+                  <c:v>0.04722</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15254</c:v>
+                  <c:v>0.0514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16272</c:v>
+                  <c:v>0.09958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29906</c:v>
+                  <c:v>0.1059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40642</c:v>
+                  <c:v>0.15344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6016</c:v>
+                  <c:v>0.22486</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51952</c:v>
+                  <c:v>0.63682</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.65244</c:v>
+                  <c:v>1.41476</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.04106</c:v>
+                  <c:v>5.66608</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.1994</c:v>
+                  <c:v>16.26914</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77.91618</c:v>
+                  <c:v>61.4038</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>280.0461</c:v>
+                  <c:v>234.45648</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1254.51694</c:v>
+                  <c:v>1266.31082</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18739.98694</c:v>
+                  <c:v>11775.08212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79239155"/>
-        <c:axId val="91790239"/>
+        <c:axId val="88249341"/>
+        <c:axId val="42616824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79239155"/>
+        <c:axId val="88249341"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90000"/>
@@ -1092,12 +1107,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91790239"/>
+        <c:crossAx val="42616824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91790239"/>
+        <c:axId val="42616824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1173,7 +1188,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79239155"/>
+        <c:crossAx val="88249341"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1237,9 +1252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>530640</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1248,7 +1263,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4375080" y="1266840"/>
-        <a:ext cx="7084080" cy="3800160"/>
+        <a:ext cx="7083720" cy="3799800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1259,36 +1274,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Arkusz1"/>
-      <sheetName val="dane_double"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Arkusz1"/>
-      <sheetName val="dane_int"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1482,638 +1467,638 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="O34" activeCellId="0" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.06442</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="3" t="n">
+        <v>0.12014</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0.18694</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.24262</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.26544</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.53958</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.70404</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.06504</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B8" s="3" t="n">
+        <v>0.93234</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>2.52398</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>12.22118</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>18.05118</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>69.53132</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>245.10638</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>20480</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1206.54412</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>40960</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>9907.03734</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>81920</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0.12036</v>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.20944</v>
-      </c>
-      <c r="C4" s="0" t="n">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>0.2426</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0.25898</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0.3466</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.06776</v>
-      </c>
-      <c r="C5" s="0" t="n">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>0.54658</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0.79646</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0.97132</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>2.0248</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>5.55378</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>19.14122</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>72.3133</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>266.78906</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>20480</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>1346.5357</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>40960</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>12337.73</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>81920</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>0.10662</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0.1622</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>0.21402</v>
+      </c>
+      <c r="C32" s="3" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.13672</v>
-      </c>
-      <c r="C6" s="0" t="n">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0.2196</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>0.24366</v>
+      </c>
+      <c r="C34" s="3" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.2332</v>
-      </c>
-      <c r="C7" s="0" t="n">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0.33488</v>
+      </c>
+      <c r="C35" s="3" t="n">
         <v>320</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.36384</v>
-      </c>
-      <c r="C8" s="0" t="n">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0.72156</v>
+      </c>
+      <c r="C36" s="3" t="n">
         <v>640</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.98802</v>
-      </c>
-      <c r="C9" s="0" t="n">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>1.5119</v>
+      </c>
+      <c r="C37" s="3" t="n">
         <v>1280</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>2.86504</v>
-      </c>
-      <c r="C10" s="0" t="n">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>4.20414</v>
+      </c>
+      <c r="C38" s="3" t="n">
         <v>2560</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>11.02444</v>
-      </c>
-      <c r="C11" s="0" t="n">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>17.6857</v>
+      </c>
+      <c r="C39" s="3" t="n">
         <v>5120</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>42.39196</v>
-      </c>
-      <c r="C12" s="0" t="n">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>61.13942</v>
+      </c>
+      <c r="C40" s="3" t="n">
         <v>10240</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>160.19042</v>
-      </c>
-      <c r="C13" s="0" t="n">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>256.09964</v>
+      </c>
+      <c r="C41" s="3" t="n">
         <v>20480</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>568.97624</v>
-      </c>
-      <c r="C14" s="0" t="n">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>1130.22278</v>
+      </c>
+      <c r="C42" s="3" t="n">
         <v>40960</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>2217.81796</v>
-      </c>
-      <c r="C15" s="0" t="n">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>10595.93898</v>
+      </c>
+      <c r="C43" s="3" t="n">
         <v>81920</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0.33536</v>
-      </c>
-      <c r="C16" s="0" t="n">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>0.04722</v>
+      </c>
+      <c r="C44" s="3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.1431</v>
-      </c>
-      <c r="C17" s="0" t="n">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>0.0514</v>
+      </c>
+      <c r="C45" s="3" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.18986</v>
-      </c>
-      <c r="C18" s="0" t="n">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>0.09958</v>
+      </c>
+      <c r="C46" s="3" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0.14936</v>
-      </c>
-      <c r="C19" s="0" t="n">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>0.1059</v>
+      </c>
+      <c r="C47" s="3" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0.20782</v>
-      </c>
-      <c r="C20" s="0" t="n">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>0.15344</v>
+      </c>
+      <c r="C48" s="3" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.50966</v>
-      </c>
-      <c r="C21" s="0" t="n">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>0.22486</v>
+      </c>
+      <c r="C49" s="3" t="n">
         <v>320</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1.57518</v>
-      </c>
-      <c r="C22" s="0" t="n">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>0.63682</v>
+      </c>
+      <c r="C50" s="3" t="n">
         <v>640</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>1.14326</v>
-      </c>
-      <c r="C23" s="0" t="n">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>1.41476</v>
+      </c>
+      <c r="C51" s="3" t="n">
         <v>1280</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>3.23402</v>
-      </c>
-      <c r="C24" s="0" t="n">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>5.66608</v>
+      </c>
+      <c r="C52" s="3" t="n">
         <v>2560</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>10.67716</v>
-      </c>
-      <c r="C25" s="0" t="n">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>16.26914</v>
+      </c>
+      <c r="C53" s="3" t="n">
         <v>5120</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>41.98154</v>
-      </c>
-      <c r="C26" s="0" t="n">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>61.4038</v>
+      </c>
+      <c r="C54" s="3" t="n">
         <v>10240</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>169.37066</v>
-      </c>
-      <c r="C27" s="0" t="n">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>234.45648</v>
+      </c>
+      <c r="C55" s="3" t="n">
         <v>20480</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>642.49028</v>
-      </c>
-      <c r="C28" s="0" t="n">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>1266.31082</v>
+      </c>
+      <c r="C56" s="3" t="n">
         <v>40960</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>2249.7953</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>81920</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.04814</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0.0453</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0.16938</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0.0763</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0.0878</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0.51184</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.35162</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.8911</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>2.97722</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>10.49454</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>5120</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>41.33716</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>157.43872</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>20480</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>574.80762</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>40960</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>2208.22924</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>81920</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>0.74878</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>0.15254</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.16272</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0.29906</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.40642</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.6016</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>0.51952</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>1.65244</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>6.04106</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>26.1994</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>5120</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>77.91618</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>280.0461</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>20480</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>1254.51694</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>40960</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>18739.98694</v>
-      </c>
-      <c r="C57" s="0" t="n">
+      <c r="B57" s="3" t="n">
+        <v>11775.08212</v>
+      </c>
+      <c r="C57" s="3" t="n">
         <v>81920</v>
       </c>
     </row>
